--- a/Вычисления.xlsx
+++ b/Вычисления.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Вычисления.xlsx
+++ b/Вычисления.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Активное оборудование" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Точка доступа</t>
   </si>
   <si>
-    <t>Ippon Smart Winner II 1000</t>
-  </si>
-  <si>
     <t>Сервер</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>telecom-sales.ru</t>
+  </si>
+  <si>
+    <t>Ippon Smart Winner II 2000E</t>
   </si>
 </sst>
 </file>
@@ -816,21 +816,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -847,15 +847,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -868,12 +868,12 @@
         <v>51608</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="24"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -891,17 +891,17 @@
         <v>92862</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="24"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="19">
         <v>2</v>
@@ -914,17 +914,17 @@
         <v>116840</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="24"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="19">
         <v>2</v>
@@ -937,17 +937,17 @@
         <v>7598</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="24"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C6" s="19">
         <v>7</v>
@@ -960,17 +960,17 @@
         <v>315630</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="24"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -983,14 +983,14 @@
         <v>77620</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="24"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -1006,30 +1006,30 @@
         <v>13993</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="24"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="24"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1037,7 +1037,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1045,9 +1045,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1084,17 +1084,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1111,15 +1111,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="19">
         <v>10</v>
@@ -1132,16 +1132,16 @@
         <v>86990</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="19">
         <v>1</v>
@@ -1154,16 +1154,16 @@
         <v>16999</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="26"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="19">
         <v>8</v>
@@ -1176,16 +1176,16 @@
         <v>4792</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="19">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>2990</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="19">
         <v>48</v>
@@ -1220,16 +1220,16 @@
         <v>49200</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="21">
         <v>2</v>
@@ -1242,11 +1242,11 @@
         <v>3860</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1254,9 +1254,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1275,7 +1275,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1283,7 +1283,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1291,7 +1291,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1323,260 +1323,260 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10">
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10">
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10">
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10">
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="10">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="10">
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="10">
         <v>14</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="10">
         <v>15</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1600,14 +1600,14 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1740,36 +1740,36 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="11"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="11"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>3</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>64.585000000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>82.322000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1820,14 +1820,14 @@
         <v>84.973999999999904</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
         <v>1</v>
@@ -1860,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>2</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>30.465</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>3</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>23.411999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>4</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>5</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>6</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>36.17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>32.876000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>8</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>25.451000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>9</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>33.67</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>10</v>
       </c>
@@ -2324,14 +2324,14 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9">
         <v>1</v>
@@ -2364,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="L47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>35.67</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>2</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>33.465000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>3</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>26.411999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>35.67</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>5</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>6</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>39.17</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>7</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>35.876000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>8</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>28.451000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>9</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>10</v>
       </c>
@@ -2847,47 +2847,47 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="K61" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>1</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>2</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>3</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>4</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>5</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>6</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>7</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>8</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>9</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>10</v>
       </c>
@@ -3237,14 +3237,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -3276,10 +3276,10 @@
         <v>10</v>
       </c>
       <c r="L75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>201.684</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>180.32600000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>154.726</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>201.69399999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>206.25399999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>211.684</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>7</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>190.32600000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>163.726</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>211.69399999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>10</v>
       </c>
@@ -3684,45 +3684,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>76</v>
       </c>
       <c r="B2" s="3">
         <f>'Активное оборудование'!E14</f>
         <v>676151</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3">
         <f>'Пассивное оборудование'!E9</f>
         <v>164831</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(B2:B3)</f>
